--- a/data/pca/factorExposure/factorExposure_2015-03-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01834951692035401</v>
+        <v>-0.01093061534144641</v>
       </c>
       <c r="C2">
-        <v>-0.02860759647418769</v>
+        <v>0.05287696895129443</v>
       </c>
       <c r="D2">
-        <v>-0.1438537526194476</v>
+        <v>-0.1114149189695067</v>
       </c>
       <c r="E2">
-        <v>-0.0620516429877384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.06181168902635019</v>
+      </c>
+      <c r="F2">
+        <v>-0.03591506793807814</v>
+      </c>
+      <c r="G2">
+        <v>0.1463466331748841</v>
+      </c>
+      <c r="H2">
+        <v>0.05898310035405799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04467474947946281</v>
+        <v>-0.02069032187290105</v>
       </c>
       <c r="C4">
-        <v>-0.07918944948350459</v>
+        <v>0.1147202030884442</v>
       </c>
       <c r="D4">
-        <v>-0.102985497194532</v>
+        <v>-0.1064681171774144</v>
       </c>
       <c r="E4">
-        <v>-0.1166685547764297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.06501522446523755</v>
+      </c>
+      <c r="F4">
+        <v>-0.09063531609642529</v>
+      </c>
+      <c r="G4">
+        <v>0.02168530613193573</v>
+      </c>
+      <c r="H4">
+        <v>-0.07293539206079287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02928351650856344</v>
+        <v>-0.03418644041327452</v>
       </c>
       <c r="C6">
-        <v>-0.02082163950585637</v>
+        <v>0.03865456628444697</v>
       </c>
       <c r="D6">
-        <v>-0.1095485385978382</v>
+        <v>-0.08891428353970048</v>
       </c>
       <c r="E6">
-        <v>-0.07721336034121754</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.09315786194995755</v>
+      </c>
+      <c r="F6">
+        <v>-0.03964315306526859</v>
+      </c>
+      <c r="G6">
+        <v>-0.001269674822434172</v>
+      </c>
+      <c r="H6">
+        <v>0.01034617943109947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.003753032636839889</v>
+        <v>-0.006289916758686962</v>
       </c>
       <c r="C7">
-        <v>-0.02657896153944887</v>
+        <v>0.04204739015083938</v>
       </c>
       <c r="D7">
-        <v>-0.09896492278346547</v>
+        <v>-0.08215896456103972</v>
       </c>
       <c r="E7">
-        <v>-0.04613266265822567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.08556214678252848</v>
+      </c>
+      <c r="F7">
+        <v>-0.01311525122973837</v>
+      </c>
+      <c r="G7">
+        <v>-0.009124873991327056</v>
+      </c>
+      <c r="H7">
+        <v>-0.02731133690572493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0001235294979843005</v>
+        <v>0.005248293112784531</v>
       </c>
       <c r="C8">
-        <v>-0.02805089004916227</v>
+        <v>0.03776076975819111</v>
       </c>
       <c r="D8">
-        <v>-0.07551773526567639</v>
+        <v>-0.05647316232815137</v>
       </c>
       <c r="E8">
-        <v>-0.06103476098950832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.05292125359522172</v>
+      </c>
+      <c r="F8">
+        <v>-0.04989331385308619</v>
+      </c>
+      <c r="G8">
+        <v>0.07538582217819495</v>
+      </c>
+      <c r="H8">
+        <v>-0.03998122794443021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03372736390258756</v>
+        <v>-0.01432537154705992</v>
       </c>
       <c r="C9">
-        <v>-0.06871009859781561</v>
+        <v>0.09413804563815496</v>
       </c>
       <c r="D9">
-        <v>-0.1067996061498443</v>
+        <v>-0.09367295757808618</v>
       </c>
       <c r="E9">
-        <v>-0.09639995308227924</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.05718319025632734</v>
+      </c>
+      <c r="F9">
+        <v>-0.05991551501467654</v>
+      </c>
+      <c r="G9">
+        <v>0.003212392148300039</v>
+      </c>
+      <c r="H9">
+        <v>-0.02573158693137654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1978483944420988</v>
+        <v>-0.2450945351234047</v>
       </c>
       <c r="C10">
-        <v>0.1555361626453066</v>
+        <v>-0.09252292382425763</v>
       </c>
       <c r="D10">
-        <v>0.03782623925059022</v>
+        <v>0.01083378860395735</v>
       </c>
       <c r="E10">
-        <v>-0.02891895337429116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01977412555787687</v>
+      </c>
+      <c r="F10">
+        <v>-0.0463476612475965</v>
+      </c>
+      <c r="G10">
+        <v>-0.005471647061431824</v>
+      </c>
+      <c r="H10">
+        <v>0.001547859087032277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01256916993028818</v>
+        <v>-0.009859925405045619</v>
       </c>
       <c r="C11">
-        <v>-0.04306098069366853</v>
+        <v>0.06123541955664739</v>
       </c>
       <c r="D11">
-        <v>-0.04167921006592968</v>
+        <v>-0.03465550584472909</v>
       </c>
       <c r="E11">
-        <v>0.00608148329822812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04018376621680061</v>
+      </c>
+      <c r="F11">
+        <v>0.0113408051836124</v>
+      </c>
+      <c r="G11">
+        <v>-0.003865753156887164</v>
+      </c>
+      <c r="H11">
+        <v>-0.02114811352588569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01085836977794983</v>
+        <v>-0.01006266914790648</v>
       </c>
       <c r="C12">
-        <v>-0.0427269764781153</v>
+        <v>0.05137652177621737</v>
       </c>
       <c r="D12">
-        <v>-0.05722736623760756</v>
+        <v>-0.04279221882011328</v>
       </c>
       <c r="E12">
-        <v>-0.01274627109858138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03467664656128763</v>
+      </c>
+      <c r="F12">
+        <v>0.0117446575869582</v>
+      </c>
+      <c r="G12">
+        <v>-0.01241117808559401</v>
+      </c>
+      <c r="H12">
+        <v>0.01617980213513668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00857675517026084</v>
+        <v>-0.004444237839660217</v>
       </c>
       <c r="C13">
-        <v>-0.03120186842955542</v>
+        <v>0.06066732496901103</v>
       </c>
       <c r="D13">
-        <v>-0.1324879576083311</v>
+        <v>-0.1450477141557605</v>
       </c>
       <c r="E13">
-        <v>-0.08793245305899448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.08705989724973436</v>
+      </c>
+      <c r="F13">
+        <v>-0.0404548208679832</v>
+      </c>
+      <c r="G13">
+        <v>0.06213435299582929</v>
+      </c>
+      <c r="H13">
+        <v>0.07391902706729082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01300193249271399</v>
+        <v>-0.001289687073349899</v>
       </c>
       <c r="C14">
-        <v>-0.01783014805953037</v>
+        <v>0.0332518587741714</v>
       </c>
       <c r="D14">
-        <v>-0.07128205515920753</v>
+        <v>-0.08167866656878289</v>
       </c>
       <c r="E14">
-        <v>-0.04139611092053445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.09277153862354524</v>
+      </c>
+      <c r="F14">
+        <v>-0.03348066136236422</v>
+      </c>
+      <c r="G14">
+        <v>0.01493077231447491</v>
+      </c>
+      <c r="H14">
+        <v>0.02905796896058291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003113150546979972</v>
+        <v>0.003750495325674608</v>
       </c>
       <c r="C15">
-        <v>-0.01233726996213124</v>
+        <v>0.03082309807451944</v>
       </c>
       <c r="D15">
-        <v>-0.04936944393503712</v>
+        <v>-0.05785457258223684</v>
       </c>
       <c r="E15">
-        <v>-0.01672725260128264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.04318167421452829</v>
+      </c>
+      <c r="F15">
+        <v>-0.009475721470033126</v>
+      </c>
+      <c r="G15">
+        <v>0.02670572332419151</v>
+      </c>
+      <c r="H15">
+        <v>-0.01447858888828627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01190562803433058</v>
+        <v>-0.009426332762130297</v>
       </c>
       <c r="C16">
-        <v>-0.0399814495633403</v>
+        <v>0.05322189959999943</v>
       </c>
       <c r="D16">
-        <v>-0.04566168398698214</v>
+        <v>-0.03700902904926836</v>
       </c>
       <c r="E16">
-        <v>-0.005919951671486586</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.04003800818537774</v>
+      </c>
+      <c r="F16">
+        <v>0.006471392256979539</v>
+      </c>
+      <c r="G16">
+        <v>-0.01474858086444684</v>
+      </c>
+      <c r="H16">
+        <v>-0.00924462764853019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.002535688262799812</v>
+        <v>0.003263772685862521</v>
       </c>
       <c r="C19">
-        <v>-0.02143725331521692</v>
+        <v>0.01613721627036043</v>
       </c>
       <c r="D19">
-        <v>-0.0638018988983471</v>
+        <v>-0.03558139226469841</v>
       </c>
       <c r="E19">
-        <v>-0.03674653753458895</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.006096369848816669</v>
+      </c>
+      <c r="F19">
+        <v>-0.007571624878995653</v>
+      </c>
+      <c r="G19">
+        <v>0.01665006418827718</v>
+      </c>
+      <c r="H19">
+        <v>0.01349087552063606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0004433027385617557</v>
+        <v>-0.004374709557692043</v>
       </c>
       <c r="C20">
-        <v>-0.02899467254399329</v>
+        <v>0.0459520998186417</v>
       </c>
       <c r="D20">
-        <v>-0.06609403633115329</v>
+        <v>-0.07093362051391612</v>
       </c>
       <c r="E20">
-        <v>-0.05479964571896688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05366315441555879</v>
+      </c>
+      <c r="F20">
+        <v>-0.02252629797174628</v>
+      </c>
+      <c r="G20">
+        <v>-0.0113898343905451</v>
+      </c>
+      <c r="H20">
+        <v>-0.03129606456436105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002049813672256229</v>
+        <v>-0.002935721882511005</v>
       </c>
       <c r="C21">
-        <v>-0.03365877209639222</v>
+        <v>0.04611894155272676</v>
       </c>
       <c r="D21">
-        <v>-0.114845697772961</v>
+        <v>-0.1053292241854346</v>
       </c>
       <c r="E21">
-        <v>-0.1280895250057329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.07032664902637986</v>
+      </c>
+      <c r="F21">
+        <v>-0.09818473266387055</v>
+      </c>
+      <c r="G21">
+        <v>0.07096961476709179</v>
+      </c>
+      <c r="H21">
+        <v>0.08492430269705632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002450711605453399</v>
+        <v>0.007635420856055325</v>
       </c>
       <c r="C22">
-        <v>-0.05442728810317306</v>
+        <v>0.08459464225621795</v>
       </c>
       <c r="D22">
-        <v>-0.2128831519831316</v>
+        <v>-0.215991033484347</v>
       </c>
       <c r="E22">
-        <v>-0.1002610120229702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06952258059136117</v>
+      </c>
+      <c r="F22">
+        <v>-0.03885965995372131</v>
+      </c>
+      <c r="G22">
+        <v>0.2439431984084766</v>
+      </c>
+      <c r="H22">
+        <v>-0.1211261542021277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.002874274581190548</v>
+        <v>0.004506514371587688</v>
       </c>
       <c r="C23">
-        <v>-0.05484386118222324</v>
+        <v>0.08671737496814662</v>
       </c>
       <c r="D23">
-        <v>-0.2117462777985422</v>
+        <v>-0.2190644340842004</v>
       </c>
       <c r="E23">
-        <v>-0.1002945847507216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.06652740397110468</v>
+      </c>
+      <c r="F23">
+        <v>-0.04161108494043104</v>
+      </c>
+      <c r="G23">
+        <v>0.2376104523257554</v>
+      </c>
+      <c r="H23">
+        <v>-0.1146100396010143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01768719876554203</v>
+        <v>-0.01068305103038667</v>
       </c>
       <c r="C24">
-        <v>-0.06116315105597878</v>
+        <v>0.07098825090209887</v>
       </c>
       <c r="D24">
-        <v>-0.06069474269734371</v>
+        <v>-0.03778097748065398</v>
       </c>
       <c r="E24">
-        <v>-0.01160556737403644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.04999773931833047</v>
+      </c>
+      <c r="F24">
+        <v>0.005664523976352715</v>
+      </c>
+      <c r="G24">
+        <v>0.003704551490954359</v>
+      </c>
+      <c r="H24">
+        <v>-0.01300581492826345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0170607046920837</v>
+        <v>-0.01455086869901252</v>
       </c>
       <c r="C25">
-        <v>-0.05309138869722254</v>
+        <v>0.0652137445752831</v>
       </c>
       <c r="D25">
-        <v>-0.04878447019226551</v>
+        <v>-0.04060710662717146</v>
       </c>
       <c r="E25">
-        <v>-0.014191228001562</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03291810230149662</v>
+      </c>
+      <c r="F25">
+        <v>0.003780722600577589</v>
+      </c>
+      <c r="G25">
+        <v>-0.01121248700771367</v>
+      </c>
+      <c r="H25">
+        <v>-0.009347539567408639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005454517398852706</v>
+        <v>-0.01644551954738644</v>
       </c>
       <c r="C26">
-        <v>-0.01912861834164805</v>
+        <v>0.03266581659800298</v>
       </c>
       <c r="D26">
-        <v>-0.06006550677780701</v>
+        <v>-0.04847157726872986</v>
       </c>
       <c r="E26">
-        <v>-0.04287557974728613</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.06886491837101393</v>
+      </c>
+      <c r="F26">
+        <v>-0.04809278838188228</v>
+      </c>
+      <c r="G26">
+        <v>0.02758246477592584</v>
+      </c>
+      <c r="H26">
+        <v>0.000928394145547506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2786476327408796</v>
+        <v>-0.313326519156891</v>
       </c>
       <c r="C28">
-        <v>0.1661893564931431</v>
+        <v>-0.08867463529821966</v>
       </c>
       <c r="D28">
-        <v>0.007913801586912739</v>
+        <v>0.01291940790127276</v>
       </c>
       <c r="E28">
-        <v>-0.02993880854835161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05399141172817357</v>
+      </c>
+      <c r="F28">
+        <v>-0.04689106465617274</v>
+      </c>
+      <c r="G28">
+        <v>0.06180916878151704</v>
+      </c>
+      <c r="H28">
+        <v>-0.02244586860418712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.004493236069387259</v>
+        <v>-0.00162580473574727</v>
       </c>
       <c r="C29">
-        <v>-0.02196981443637113</v>
+        <v>0.03995127839460729</v>
       </c>
       <c r="D29">
-        <v>-0.07293980513297425</v>
+        <v>-0.08692439284715085</v>
       </c>
       <c r="E29">
-        <v>-0.05161734169130169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1061700890643069</v>
+      </c>
+      <c r="F29">
+        <v>-0.03903769729623281</v>
+      </c>
+      <c r="G29">
+        <v>0.01231612024651321</v>
+      </c>
+      <c r="H29">
+        <v>0.03860287879999133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02648503636749685</v>
+        <v>-0.01746678184845081</v>
       </c>
       <c r="C30">
-        <v>-0.07414477304553778</v>
+        <v>0.1000138565085981</v>
       </c>
       <c r="D30">
-        <v>-0.1489450380603168</v>
+        <v>-0.1106261744708866</v>
       </c>
       <c r="E30">
-        <v>-0.06878733650669741</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.09469961841328951</v>
+      </c>
+      <c r="F30">
+        <v>-0.01524022380414683</v>
+      </c>
+      <c r="G30">
+        <v>0.02197264216584887</v>
+      </c>
+      <c r="H30">
+        <v>-0.04759742419512716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03144431753582305</v>
+        <v>-0.01002412973640265</v>
       </c>
       <c r="C31">
-        <v>-0.08555063973600839</v>
+        <v>0.09515347770350174</v>
       </c>
       <c r="D31">
-        <v>-0.0506850040140894</v>
+        <v>-0.02830882476468263</v>
       </c>
       <c r="E31">
-        <v>-0.02521610258943033</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02514438448062543</v>
+      </c>
+      <c r="F31">
+        <v>-0.01707831336143421</v>
+      </c>
+      <c r="G31">
+        <v>0.01786002405573112</v>
+      </c>
+      <c r="H31">
+        <v>-0.006030011514607164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01518304552194916</v>
+        <v>-0.01478347731139563</v>
       </c>
       <c r="C32">
-        <v>-0.04343429885646202</v>
+        <v>0.05163150030827577</v>
       </c>
       <c r="D32">
-        <v>-0.08566546052852449</v>
+        <v>-0.07651416915999881</v>
       </c>
       <c r="E32">
-        <v>-0.07476584812609756</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01625503225128206</v>
+      </c>
+      <c r="F32">
+        <v>-0.04973366604212798</v>
+      </c>
+      <c r="G32">
+        <v>0.03389335629691568</v>
+      </c>
+      <c r="H32">
+        <v>0.02527700146252042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004477871597467919</v>
+        <v>-0.007402718952694631</v>
       </c>
       <c r="C33">
-        <v>-0.04213549158478909</v>
+        <v>0.06557242597364883</v>
       </c>
       <c r="D33">
-        <v>-0.1056870225809121</v>
+        <v>-0.1024673079832574</v>
       </c>
       <c r="E33">
-        <v>-0.06930300366688477</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.06995529486910564</v>
+      </c>
+      <c r="F33">
+        <v>-0.03105409723757568</v>
+      </c>
+      <c r="G33">
+        <v>0.01033672780136531</v>
+      </c>
+      <c r="H33">
+        <v>-0.0003975052107379314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01400381433668182</v>
+        <v>-0.008937768646875906</v>
       </c>
       <c r="C34">
-        <v>-0.06137080535291987</v>
+        <v>0.06277122772283557</v>
       </c>
       <c r="D34">
-        <v>-0.05321906740182657</v>
+        <v>-0.01958761349388359</v>
       </c>
       <c r="E34">
-        <v>0.03250701480188218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03680092348324957</v>
+      </c>
+      <c r="F34">
+        <v>0.03794947195657752</v>
+      </c>
+      <c r="G34">
+        <v>0.004199711588070467</v>
+      </c>
+      <c r="H34">
+        <v>0.001438337617081044</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0002134121890789153</v>
+        <v>-0.003920904455843383</v>
       </c>
       <c r="C35">
-        <v>-0.0008600458226380508</v>
+        <v>0.0158835461805713</v>
       </c>
       <c r="D35">
-        <v>-0.001093914941176099</v>
+        <v>-0.03281323872817077</v>
       </c>
       <c r="E35">
-        <v>8.095954270103432e-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.02419866878336701</v>
+      </c>
+      <c r="F35">
+        <v>-0.02013454645133288</v>
+      </c>
+      <c r="G35">
+        <v>-0.001965680691318803</v>
+      </c>
+      <c r="H35">
+        <v>0.005410927474904672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005973219405659001</v>
+        <v>-0.01066605682341741</v>
       </c>
       <c r="C36">
-        <v>-0.01037857100919871</v>
+        <v>0.02499133174015919</v>
       </c>
       <c r="D36">
-        <v>-0.06087069184269633</v>
+        <v>-0.05988388426936871</v>
       </c>
       <c r="E36">
-        <v>-0.06384193434694313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.05772950508543739</v>
+      </c>
+      <c r="F36">
+        <v>-0.04892332527833483</v>
+      </c>
+      <c r="G36">
+        <v>0.01310237416941445</v>
+      </c>
+      <c r="H36">
+        <v>0.0007099573848447755</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0009636616478357806</v>
+        <v>-0.008511503561520218</v>
       </c>
       <c r="C38">
-        <v>-0.009892619546660798</v>
+        <v>0.02933760136427591</v>
       </c>
       <c r="D38">
-        <v>-0.08528175466467827</v>
+        <v>-0.08064481465577446</v>
       </c>
       <c r="E38">
-        <v>-0.03367883317820423</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.04791688602445938</v>
+      </c>
+      <c r="F38">
+        <v>-0.009275417607448906</v>
+      </c>
+      <c r="G38">
+        <v>0.03215383873485143</v>
+      </c>
+      <c r="H38">
+        <v>-0.04015070244344161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0117875937769402</v>
+        <v>-0.00611769629237406</v>
       </c>
       <c r="C39">
-        <v>-0.06326658910750972</v>
+        <v>0.08949538751215545</v>
       </c>
       <c r="D39">
-        <v>-0.1034997669907121</v>
+        <v>-0.07703766259301982</v>
       </c>
       <c r="E39">
-        <v>-0.02724438939887575</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.08850338264713253</v>
+      </c>
+      <c r="F39">
+        <v>0.007442403518377525</v>
+      </c>
+      <c r="G39">
+        <v>0.002045166115032698</v>
+      </c>
+      <c r="H39">
+        <v>-0.01026364762515027</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01471698911361079</v>
+        <v>-0.01304396903167829</v>
       </c>
       <c r="C40">
-        <v>-0.02719961293220909</v>
+        <v>0.04259080362454157</v>
       </c>
       <c r="D40">
-        <v>-0.1148645473965814</v>
+        <v>-0.07964804827047968</v>
       </c>
       <c r="E40">
-        <v>-0.02476517629831914</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.07046361695544927</v>
+      </c>
+      <c r="F40">
+        <v>0.02359611268415998</v>
+      </c>
+      <c r="G40">
+        <v>0.0851522316728264</v>
+      </c>
+      <c r="H40">
+        <v>0.01498489228076173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007196440926154058</v>
+        <v>-0.01669704728897546</v>
       </c>
       <c r="C41">
-        <v>-0.007276894081880147</v>
+        <v>0.02449887570254974</v>
       </c>
       <c r="D41">
-        <v>-0.02625667969821093</v>
+        <v>-0.03702663555629927</v>
       </c>
       <c r="E41">
-        <v>-0.02611999644253327</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01880444794924358</v>
+      </c>
+      <c r="F41">
+        <v>-0.01965539731656224</v>
+      </c>
+      <c r="G41">
+        <v>0.007602859200004536</v>
+      </c>
+      <c r="H41">
+        <v>-0.004956006940677831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003586984500339611</v>
+        <v>-0.008529864859250686</v>
       </c>
       <c r="C43">
-        <v>-0.002145063034786625</v>
+        <v>0.01706827495654068</v>
       </c>
       <c r="D43">
-        <v>-0.04023265695285241</v>
+        <v>-0.04723962957859165</v>
       </c>
       <c r="E43">
-        <v>-0.03171711793784047</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.03079665897859207</v>
+      </c>
+      <c r="F43">
+        <v>-0.02352357110502793</v>
+      </c>
+      <c r="G43">
+        <v>0.003284053155714158</v>
+      </c>
+      <c r="H43">
+        <v>-0.01944957478706665</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01827439935215206</v>
+        <v>-0.009890411755780046</v>
       </c>
       <c r="C44">
-        <v>-0.03024447170157498</v>
+        <v>0.05186774856581816</v>
       </c>
       <c r="D44">
-        <v>-0.09663095306292273</v>
+        <v>-0.09038598389006859</v>
       </c>
       <c r="E44">
-        <v>-0.08435679603315142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07910899133937731</v>
+      </c>
+      <c r="F44">
+        <v>-0.03720243845182815</v>
+      </c>
+      <c r="G44">
+        <v>0.04304817503242738</v>
+      </c>
+      <c r="H44">
+        <v>-0.02729027139563082</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0007063627120001935</v>
+        <v>0.002049215326553032</v>
       </c>
       <c r="C46">
-        <v>-0.03265689336292087</v>
+        <v>0.04323744983021612</v>
       </c>
       <c r="D46">
-        <v>-0.07925859078205817</v>
+        <v>-0.06135305140464827</v>
       </c>
       <c r="E46">
-        <v>-0.04663645541053872</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.08144993319578503</v>
+      </c>
+      <c r="F46">
+        <v>-0.03376737591373659</v>
+      </c>
+      <c r="G46">
+        <v>0.02218173243958776</v>
+      </c>
+      <c r="H46">
+        <v>0.0002919821371752238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06556215585473116</v>
+        <v>-0.02994184185774133</v>
       </c>
       <c r="C47">
-        <v>-0.115180739722463</v>
+        <v>0.1243521502281611</v>
       </c>
       <c r="D47">
-        <v>-0.05854747209358983</v>
+        <v>-0.0230935514668263</v>
       </c>
       <c r="E47">
-        <v>-0.02688128301966086</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.001277779153318198</v>
+      </c>
+      <c r="F47">
+        <v>0.00192603022745817</v>
+      </c>
+      <c r="G47">
+        <v>-0.01880216268544605</v>
+      </c>
+      <c r="H47">
+        <v>-0.01110417015940409</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004130553571397973</v>
+        <v>-0.01199226730893918</v>
       </c>
       <c r="C48">
-        <v>-0.01799518147101865</v>
+        <v>0.03398544870483538</v>
       </c>
       <c r="D48">
-        <v>-0.06221999341495635</v>
+        <v>-0.06317741921372515</v>
       </c>
       <c r="E48">
-        <v>-0.06668247713980051</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.05585198934277807</v>
+      </c>
+      <c r="F48">
+        <v>-0.05710334990931332</v>
+      </c>
+      <c r="G48">
+        <v>0.02017297331792799</v>
+      </c>
+      <c r="H48">
+        <v>-0.01391107267128656</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.002285659226423242</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.002102048998964523</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.002258144590385324</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0004770557008883209</v>
+      </c>
+      <c r="F49">
+        <v>0.001618207734646922</v>
+      </c>
+      <c r="G49">
+        <v>-0.004963466768783278</v>
+      </c>
+      <c r="H49">
+        <v>0.004011379103192591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03058620083620426</v>
+        <v>-0.01445795838730793</v>
       </c>
       <c r="C50">
-        <v>-0.05878251440707477</v>
+        <v>0.07632827127344842</v>
       </c>
       <c r="D50">
-        <v>-0.0601688118252787</v>
+        <v>-0.04104491318177439</v>
       </c>
       <c r="E50">
-        <v>-0.01938379259609138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03234822361792799</v>
+      </c>
+      <c r="F50">
+        <v>-0.0090734895912546</v>
+      </c>
+      <c r="G50">
+        <v>0.01828043634714999</v>
+      </c>
+      <c r="H50">
+        <v>-0.01688681600848941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005203534247219577</v>
+        <v>0.004388728735938865</v>
       </c>
       <c r="C51">
-        <v>-0.005577114431294012</v>
+        <v>0.01828166405995618</v>
       </c>
       <c r="D51">
-        <v>-0.06102188182148933</v>
+        <v>-0.04083344367172701</v>
       </c>
       <c r="E51">
-        <v>-0.03898674590191122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05876409707145027</v>
+      </c>
+      <c r="F51">
+        <v>-0.03859481838356874</v>
+      </c>
+      <c r="G51">
+        <v>0.0486503616047637</v>
+      </c>
+      <c r="H51">
+        <v>0.001326676686730183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.101345007872652</v>
+        <v>-0.0585557428513822</v>
       </c>
       <c r="C53">
-        <v>-0.1375345289900047</v>
+        <v>0.1636307229586768</v>
       </c>
       <c r="D53">
-        <v>0.0004215311150605668</v>
+        <v>0.02035578427718804</v>
       </c>
       <c r="E53">
-        <v>-0.03538554593856957</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02683356798342653</v>
+      </c>
+      <c r="F53">
+        <v>-0.03948430638315013</v>
+      </c>
+      <c r="G53">
+        <v>0.007626937175251145</v>
+      </c>
+      <c r="H53">
+        <v>-0.005313166914880961</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004488696443689759</v>
+        <v>-0.01011672689984994</v>
       </c>
       <c r="C54">
-        <v>-0.02410633502600874</v>
+        <v>0.04082746257006251</v>
       </c>
       <c r="D54">
-        <v>-0.08573684483064405</v>
+        <v>-0.07045507611983398</v>
       </c>
       <c r="E54">
-        <v>-0.03413350360751456</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0471742760140312</v>
+      </c>
+      <c r="F54">
+        <v>-0.008798248017460356</v>
+      </c>
+      <c r="G54">
+        <v>0.02432662599386355</v>
+      </c>
+      <c r="H54">
+        <v>-0.02714478964430419</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0836805203691572</v>
+        <v>-0.04092499442924755</v>
       </c>
       <c r="C55">
-        <v>-0.1145259814796801</v>
+        <v>0.1285650696250406</v>
       </c>
       <c r="D55">
-        <v>-8.996912531982455e-05</v>
+        <v>0.04562567764618949</v>
       </c>
       <c r="E55">
-        <v>0.007954308261683482</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.009387624262505829</v>
+      </c>
+      <c r="F55">
+        <v>-0.0007191761890071467</v>
+      </c>
+      <c r="G55">
+        <v>0.01621032477258351</v>
+      </c>
+      <c r="H55">
+        <v>0.004531532217868725</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1225066659096212</v>
+        <v>-0.058822130944477</v>
       </c>
       <c r="C56">
-        <v>-0.1642294235905288</v>
+        <v>0.1941420728745176</v>
       </c>
       <c r="D56">
-        <v>-0.02152195230408655</v>
+        <v>0.04422585652943598</v>
       </c>
       <c r="E56">
-        <v>0.01592023179643204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03320479774380991</v>
+      </c>
+      <c r="F56">
+        <v>-0.00181060441183888</v>
+      </c>
+      <c r="G56">
+        <v>0.07103787849936624</v>
+      </c>
+      <c r="H56">
+        <v>-0.003390048585628958</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003942450116726209</v>
+        <v>-0.008818607815824123</v>
       </c>
       <c r="C58">
-        <v>-0.02053613159464434</v>
+        <v>0.06944371631324162</v>
       </c>
       <c r="D58">
-        <v>-0.2227927597492275</v>
+        <v>-0.2603821217825946</v>
       </c>
       <c r="E58">
-        <v>-0.187329772906336</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.09283503292618041</v>
+      </c>
+      <c r="F58">
+        <v>-0.143389635897422</v>
+      </c>
+      <c r="G58">
+        <v>0.1687446956625036</v>
+      </c>
+      <c r="H58">
+        <v>-0.08183695573331383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2059309046053949</v>
+        <v>-0.2606959557198362</v>
       </c>
       <c r="C59">
-        <v>0.121014935368167</v>
+        <v>-0.05408811861886254</v>
       </c>
       <c r="D59">
-        <v>-0.05839723220463695</v>
+        <v>-0.04655950549993298</v>
       </c>
       <c r="E59">
-        <v>-0.04259563459621633</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01271113260055941</v>
+      </c>
+      <c r="F59">
+        <v>-0.01925553213759011</v>
+      </c>
+      <c r="G59">
+        <v>0.03213871036209273</v>
+      </c>
+      <c r="H59">
+        <v>0.03432792663848339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1751456770845557</v>
+        <v>-0.1514777112698059</v>
       </c>
       <c r="C60">
-        <v>-0.1124547934611051</v>
+        <v>0.1672458030620264</v>
       </c>
       <c r="D60">
-        <v>-0.1249620485698939</v>
+        <v>-0.03626980925359741</v>
       </c>
       <c r="E60">
-        <v>0.06133245531704273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1069283906632237</v>
+      </c>
+      <c r="F60">
+        <v>0.2033426816121705</v>
+      </c>
+      <c r="G60">
+        <v>-0.2532504081391289</v>
+      </c>
+      <c r="H60">
+        <v>0.1413155211160445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01984303857525207</v>
+        <v>-0.01220414962551044</v>
       </c>
       <c r="C61">
-        <v>-0.05955831588103713</v>
+        <v>0.08224772844768929</v>
       </c>
       <c r="D61">
-        <v>-0.07379659991844505</v>
+        <v>-0.05189799733330695</v>
       </c>
       <c r="E61">
-        <v>-0.00892130331420652</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.06272746716919661</v>
+      </c>
+      <c r="F61">
+        <v>0.01380244462538375</v>
+      </c>
+      <c r="G61">
+        <v>-0.003913352218757392</v>
+      </c>
+      <c r="H61">
+        <v>-0.003014963934923154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009844176002815551</v>
+        <v>-0.01556133735351507</v>
       </c>
       <c r="C63">
-        <v>-0.02745337361411416</v>
+        <v>0.04662608448421127</v>
       </c>
       <c r="D63">
-        <v>-0.07766930216775446</v>
+        <v>-0.04705025296378781</v>
       </c>
       <c r="E63">
-        <v>-0.03900731855390073</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.08375367583752542</v>
+      </c>
+      <c r="F63">
+        <v>-0.02133556602554256</v>
+      </c>
+      <c r="G63">
+        <v>0.008071008194510881</v>
+      </c>
+      <c r="H63">
+        <v>-0.007017845753295237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04559983234561236</v>
+        <v>-0.01540052413480778</v>
       </c>
       <c r="C64">
-        <v>-0.09374129121020333</v>
+        <v>0.1053501132394543</v>
       </c>
       <c r="D64">
-        <v>-0.0224187063388401</v>
+        <v>-0.01106531623212236</v>
       </c>
       <c r="E64">
-        <v>-0.02950107377116919</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03401263735439874</v>
+      </c>
+      <c r="F64">
+        <v>-0.01901395586940759</v>
+      </c>
+      <c r="G64">
+        <v>-0.02989124682820763</v>
+      </c>
+      <c r="H64">
+        <v>-0.04098210927353164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02563030265864566</v>
+        <v>-0.02563232324937875</v>
       </c>
       <c r="C65">
-        <v>-0.02013808112771109</v>
+        <v>0.04541538268442364</v>
       </c>
       <c r="D65">
-        <v>-0.09700171156815013</v>
+        <v>-0.09393145251316862</v>
       </c>
       <c r="E65">
-        <v>-0.04286637966518404</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0724785883395318</v>
+      </c>
+      <c r="F65">
+        <v>0.01042375339813123</v>
+      </c>
+      <c r="G65">
+        <v>-0.05160811593821886</v>
+      </c>
+      <c r="H65">
+        <v>-0.02340505066140969</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01983212135742333</v>
+        <v>-0.007971482683777498</v>
       </c>
       <c r="C66">
-        <v>-0.07531401676048738</v>
+        <v>0.1105858832551828</v>
       </c>
       <c r="D66">
-        <v>-0.1288252494336904</v>
+        <v>-0.1041077872024936</v>
       </c>
       <c r="E66">
-        <v>-0.03210825114437471</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.08597097517070779</v>
+      </c>
+      <c r="F66">
+        <v>0.007648708920273182</v>
+      </c>
+      <c r="G66">
+        <v>0.02360270711285803</v>
+      </c>
+      <c r="H66">
+        <v>-0.01491903150742737</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01458387526105869</v>
+        <v>-0.01772796139131588</v>
       </c>
       <c r="C67">
-        <v>-0.02057868100052855</v>
+        <v>0.03670553416704275</v>
       </c>
       <c r="D67">
-        <v>-0.04747712101040592</v>
+        <v>-0.04156470382988785</v>
       </c>
       <c r="E67">
-        <v>0.003180244804330185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.03737449010200921</v>
+      </c>
+      <c r="F67">
+        <v>0.01956771699667428</v>
+      </c>
+      <c r="G67">
+        <v>0.00728555239295486</v>
+      </c>
+      <c r="H67">
+        <v>-0.02959657625904005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2144493726689917</v>
+        <v>-0.2793579360906039</v>
       </c>
       <c r="C68">
-        <v>0.1322467906574444</v>
+        <v>-0.0669350358794296</v>
       </c>
       <c r="D68">
-        <v>-0.02669858019531604</v>
+        <v>-0.03227917188314171</v>
       </c>
       <c r="E68">
-        <v>-0.02692305638549914</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.009096864694645991</v>
+      </c>
+      <c r="F68">
+        <v>-0.02438025138397714</v>
+      </c>
+      <c r="G68">
+        <v>0.05138109695203776</v>
+      </c>
+      <c r="H68">
+        <v>0.00644999704085134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.048000816638842</v>
+        <v>-0.01432372649414239</v>
       </c>
       <c r="C69">
-        <v>-0.1168911962139736</v>
+        <v>0.1110533826344162</v>
       </c>
       <c r="D69">
-        <v>-0.07053803406385867</v>
+        <v>-0.01825326811954463</v>
       </c>
       <c r="E69">
-        <v>-0.0295955751848845</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0115945316163653</v>
+      </c>
+      <c r="F69">
+        <v>0.01066213324636471</v>
+      </c>
+      <c r="G69">
+        <v>-0.009262543690384826</v>
+      </c>
+      <c r="H69">
+        <v>0.00415292345511106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2344441894084101</v>
+        <v>-0.2723363777401007</v>
       </c>
       <c r="C71">
-        <v>0.1540446040213705</v>
+        <v>-0.08179260524288889</v>
       </c>
       <c r="D71">
-        <v>-0.01693188330462879</v>
+        <v>-0.008467187246151515</v>
       </c>
       <c r="E71">
-        <v>-0.003809004515946848</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.007489231936440815</v>
+      </c>
+      <c r="F71">
+        <v>-0.01214701878521143</v>
+      </c>
+      <c r="G71">
+        <v>0.04432793194131682</v>
+      </c>
+      <c r="H71">
+        <v>-0.01629424381051882</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09767752740714496</v>
+        <v>-0.06337539589831548</v>
       </c>
       <c r="C72">
-        <v>-0.07859771509482816</v>
+        <v>0.1241089613910127</v>
       </c>
       <c r="D72">
-        <v>-0.09893145178206235</v>
+        <v>-0.0427492539716777</v>
       </c>
       <c r="E72">
-        <v>-0.02605796299454449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08205899836255594</v>
+      </c>
+      <c r="F72">
+        <v>0.01874669268334003</v>
+      </c>
+      <c r="G72">
+        <v>-0.03321898088279249</v>
+      </c>
+      <c r="H72">
+        <v>-0.0001588526390518226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1724027861671574</v>
+        <v>-0.1589797774268211</v>
       </c>
       <c r="C73">
-        <v>-0.08697949432045805</v>
+        <v>0.1673701256025155</v>
       </c>
       <c r="D73">
-        <v>-0.1926818712842169</v>
+        <v>-0.05352291068044283</v>
       </c>
       <c r="E73">
-        <v>0.09601159538722798</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2701996266959416</v>
+      </c>
+      <c r="F73">
+        <v>0.3002413177483076</v>
+      </c>
+      <c r="G73">
+        <v>-0.4051620176963198</v>
+      </c>
+      <c r="H73">
+        <v>0.1549336644729317</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09718896104623596</v>
+        <v>-0.05113697904687041</v>
       </c>
       <c r="C74">
-        <v>-0.1225426666039615</v>
+        <v>0.141215045920707</v>
       </c>
       <c r="D74">
-        <v>0.04459013254941826</v>
+        <v>0.04542211617827315</v>
       </c>
       <c r="E74">
-        <v>-0.01708501794809713</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03230571642416562</v>
+      </c>
+      <c r="F74">
+        <v>-0.0324409199600405</v>
+      </c>
+      <c r="G74">
+        <v>-0.005979417532874107</v>
+      </c>
+      <c r="H74">
+        <v>0.002561546168072961</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2068943944571332</v>
+        <v>-0.09659798095066285</v>
       </c>
       <c r="C75">
-        <v>-0.2199880662821609</v>
+        <v>0.2611680400705469</v>
       </c>
       <c r="D75">
-        <v>0.05097147183533404</v>
+        <v>0.1170441063633224</v>
       </c>
       <c r="E75">
-        <v>0.09804290400655295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1194372402979924</v>
+      </c>
+      <c r="F75">
+        <v>0.0527748888636253</v>
+      </c>
+      <c r="G75">
+        <v>0.108220288114722</v>
+      </c>
+      <c r="H75">
+        <v>-0.08134636141647039</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1258282873951665</v>
+        <v>-0.05941302422779284</v>
       </c>
       <c r="C76">
-        <v>-0.1482867604052052</v>
+        <v>0.1781917054956395</v>
       </c>
       <c r="D76">
-        <v>-0.006124898480438513</v>
+        <v>0.04827076880383006</v>
       </c>
       <c r="E76">
-        <v>0.02079958517099101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04183772260253268</v>
+      </c>
+      <c r="F76">
+        <v>0.00864790325340921</v>
+      </c>
+      <c r="G76">
+        <v>0.04555746810158382</v>
+      </c>
+      <c r="H76">
+        <v>-0.01622572354638703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003307076801388341</v>
+        <v>0.002857349237086974</v>
       </c>
       <c r="C77">
-        <v>-0.08176094455717327</v>
+        <v>0.1202896036353312</v>
       </c>
       <c r="D77">
-        <v>-0.2256369312786585</v>
+        <v>-0.5448560492473671</v>
       </c>
       <c r="E77">
-        <v>-0.1332021040626875</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7456258304015806</v>
+      </c>
+      <c r="F77">
+        <v>0.1528005578341592</v>
+      </c>
+      <c r="G77">
+        <v>-0.1987497004820132</v>
+      </c>
+      <c r="H77">
+        <v>0.01327967644846071</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03218922565919854</v>
+        <v>-0.02285247098465373</v>
       </c>
       <c r="C78">
-        <v>-0.07527835033443239</v>
+        <v>0.09578765069020834</v>
       </c>
       <c r="D78">
-        <v>-0.1578345452782913</v>
+        <v>-0.08212352612093247</v>
       </c>
       <c r="E78">
-        <v>-0.09826526720777802</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.0903575992474753</v>
+      </c>
+      <c r="F78">
+        <v>-0.04455899268380891</v>
+      </c>
+      <c r="G78">
+        <v>0.1018964770822024</v>
+      </c>
+      <c r="H78">
+        <v>0.03555306787632709</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1069976213489534</v>
+        <v>-0.05089321644103333</v>
       </c>
       <c r="C79">
-        <v>-0.2133714415912082</v>
+        <v>0.2175585013037898</v>
       </c>
       <c r="D79">
-        <v>0.5136600314862627</v>
+        <v>0.1365003874515339</v>
       </c>
       <c r="E79">
-        <v>-0.7466613271914844</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.09905171504262048</v>
+      </c>
+      <c r="F79">
+        <v>-0.7849737074595409</v>
+      </c>
+      <c r="G79">
+        <v>-0.4328576438073713</v>
+      </c>
+      <c r="H79">
+        <v>0.02554133914398524</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.001451903812973253</v>
+        <v>-0.007089173398520732</v>
       </c>
       <c r="C80">
-        <v>-0.04620491399945011</v>
+        <v>0.04635919712243539</v>
       </c>
       <c r="D80">
-        <v>-0.0476630952143467</v>
+        <v>-0.02664817312776883</v>
       </c>
       <c r="E80">
-        <v>-0.007743262636736477</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06864402136386084</v>
+      </c>
+      <c r="F80">
+        <v>0.001566342171840439</v>
+      </c>
+      <c r="G80">
+        <v>0.01830865672457423</v>
+      </c>
+      <c r="H80">
+        <v>0.09342706666572988</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09701280888419997</v>
+        <v>-0.03304714421464751</v>
       </c>
       <c r="C81">
-        <v>-0.1422512389754423</v>
+        <v>0.1583953705295327</v>
       </c>
       <c r="D81">
-        <v>0.07417893591029784</v>
+        <v>0.07109220552396674</v>
       </c>
       <c r="E81">
-        <v>0.009406924513963195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05842898965057283</v>
+      </c>
+      <c r="F81">
+        <v>-0.05159069334073142</v>
+      </c>
+      <c r="G81">
+        <v>0.06665260476961027</v>
+      </c>
+      <c r="H81">
+        <v>0.004334127973265624</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2014226031401534</v>
+        <v>-0.07654467348485709</v>
       </c>
       <c r="C82">
-        <v>-0.3120106820946914</v>
+        <v>0.2947016519909754</v>
       </c>
       <c r="D82">
-        <v>0.1054599290449145</v>
+        <v>0.2131739461014952</v>
       </c>
       <c r="E82">
-        <v>0.2364729971698816</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1190436540546184</v>
+      </c>
+      <c r="F82">
+        <v>0.114064550362817</v>
+      </c>
+      <c r="G82">
+        <v>0.1494398854349782</v>
+      </c>
+      <c r="H82">
+        <v>-0.01241214746545019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0152085659547309</v>
+        <v>0.008366431377339568</v>
       </c>
       <c r="C83">
-        <v>-0.04937983443471319</v>
+        <v>0.01759058230685077</v>
       </c>
       <c r="D83">
-        <v>-0.00285653665554323</v>
+        <v>-0.01985685862430361</v>
       </c>
       <c r="E83">
-        <v>-0.0374899821188053</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09941855126933394</v>
+      </c>
+      <c r="F83">
+        <v>-0.09722032200236659</v>
+      </c>
+      <c r="G83">
+        <v>0.2667933017621446</v>
+      </c>
+      <c r="H83">
+        <v>0.8931258330450595</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001041010883708434</v>
+        <v>0.00431935563944624</v>
       </c>
       <c r="C84">
-        <v>-0.003549394610620398</v>
+        <v>0.0164290593513087</v>
       </c>
       <c r="D84">
-        <v>-0.0101867895677129</v>
+        <v>-0.04313622931758988</v>
       </c>
       <c r="E84">
-        <v>-0.0005662152446525938</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01829567594087416</v>
+      </c>
+      <c r="F84">
+        <v>-0.02989853833612893</v>
+      </c>
+      <c r="G84">
+        <v>0.05384061749710983</v>
+      </c>
+      <c r="H84">
+        <v>-0.06200279623919797</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1267833602760069</v>
+        <v>-0.0545408625395789</v>
       </c>
       <c r="C85">
-        <v>-0.1546974548349544</v>
+        <v>0.1771288132262422</v>
       </c>
       <c r="D85">
-        <v>0.08355924540151448</v>
+        <v>0.1147280975902078</v>
       </c>
       <c r="E85">
-        <v>-0.005064747572495403</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.02276685719154259</v>
+      </c>
+      <c r="F85">
+        <v>-0.05865640713970752</v>
+      </c>
+      <c r="G85">
+        <v>0.01711190021781301</v>
+      </c>
+      <c r="H85">
+        <v>-0.01948016855624144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0216867915994883</v>
+        <v>-0.01603269520938859</v>
       </c>
       <c r="C86">
-        <v>-0.01221099049933768</v>
+        <v>0.04154567842294402</v>
       </c>
       <c r="D86">
-        <v>-0.1111980176240219</v>
+        <v>-0.1077592225181563</v>
       </c>
       <c r="E86">
-        <v>-0.05164394082244536</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01027311627382902</v>
+      </c>
+      <c r="F86">
+        <v>-0.02314996263010106</v>
+      </c>
+      <c r="G86">
+        <v>-0.002338342493925585</v>
+      </c>
+      <c r="H86">
+        <v>-0.01476914252167998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02028898448856483</v>
+        <v>-0.009583736565147844</v>
       </c>
       <c r="C87">
-        <v>-0.03732893068445736</v>
+        <v>0.06820141266070563</v>
       </c>
       <c r="D87">
-        <v>-0.1360521096441124</v>
+        <v>-0.12618473182724</v>
       </c>
       <c r="E87">
-        <v>-0.09445538312063366</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.0592459654037726</v>
+      </c>
+      <c r="F87">
+        <v>-0.04540220923609233</v>
+      </c>
+      <c r="G87">
+        <v>0.08372444111916395</v>
+      </c>
+      <c r="H87">
+        <v>-0.008526267731930206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0463905119984366</v>
+        <v>-0.03409083426381736</v>
       </c>
       <c r="C88">
-        <v>-0.04966918301844463</v>
+        <v>0.07162389281371943</v>
       </c>
       <c r="D88">
-        <v>-0.008822903313326226</v>
+        <v>-0.01506498041134516</v>
       </c>
       <c r="E88">
-        <v>-0.02564046068247251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.03679092920762305</v>
+      </c>
+      <c r="F88">
+        <v>-0.02190778732908121</v>
+      </c>
+      <c r="G88">
+        <v>-0.01000270570387161</v>
+      </c>
+      <c r="H88">
+        <v>-0.00964602268007414</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3495088369980166</v>
+        <v>-0.3969400818783536</v>
       </c>
       <c r="C89">
-        <v>0.2915524249045074</v>
+        <v>-0.1627889616254352</v>
       </c>
       <c r="D89">
-        <v>-0.02532497804805573</v>
+        <v>-0.05050557073601646</v>
       </c>
       <c r="E89">
-        <v>-0.1142058703370064</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02856801017604099</v>
+      </c>
+      <c r="F89">
+        <v>-0.07429243718877682</v>
+      </c>
+      <c r="G89">
+        <v>0.08259737238049866</v>
+      </c>
+      <c r="H89">
+        <v>0.04825588921116213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2788885340280713</v>
+        <v>-0.3229492317298718</v>
       </c>
       <c r="C90">
-        <v>0.2107019716498763</v>
+        <v>-0.1025939089734971</v>
       </c>
       <c r="D90">
-        <v>-0.05898603179511293</v>
+        <v>-0.03220936094526603</v>
       </c>
       <c r="E90">
-        <v>-0.006309760962346597</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0009580981452817265</v>
+      </c>
+      <c r="F90">
+        <v>0.007244329092077011</v>
+      </c>
+      <c r="G90">
+        <v>0.05686043100454146</v>
+      </c>
+      <c r="H90">
+        <v>0.007025561278377486</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1320872195220303</v>
+        <v>-0.06387600534806544</v>
       </c>
       <c r="C91">
-        <v>-0.2003159935959237</v>
+        <v>0.2026102000104271</v>
       </c>
       <c r="D91">
-        <v>0.09045269119878924</v>
+        <v>0.09462651876487856</v>
       </c>
       <c r="E91">
-        <v>-0.03288826254947104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08739440954758203</v>
+      </c>
+      <c r="F91">
+        <v>-0.05972705196320219</v>
+      </c>
+      <c r="G91">
+        <v>0.01213233360719205</v>
+      </c>
+      <c r="H91">
+        <v>0.02080731581627386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2695096946657232</v>
+        <v>-0.339524904994684</v>
       </c>
       <c r="C92">
-        <v>0.2395117947407364</v>
+        <v>-0.143237989920846</v>
       </c>
       <c r="D92">
-        <v>0.03539214325354849</v>
+        <v>-0.03034851446395401</v>
       </c>
       <c r="E92">
-        <v>-0.02246571778115453</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06479187781843419</v>
+      </c>
+      <c r="F92">
+        <v>-0.03645976195137855</v>
+      </c>
+      <c r="G92">
+        <v>-0.002837076804526955</v>
+      </c>
+      <c r="H92">
+        <v>-0.1330624976519603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2966525468404754</v>
+        <v>-0.329474468921413</v>
       </c>
       <c r="C93">
-        <v>0.216297038248987</v>
+        <v>-0.1172868907887722</v>
       </c>
       <c r="D93">
-        <v>0.02279401051355226</v>
+        <v>0.02578114740767432</v>
       </c>
       <c r="E93">
-        <v>0.01078085153941844</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.005388654642255012</v>
+      </c>
+      <c r="F93">
+        <v>-0.01071643735669423</v>
+      </c>
+      <c r="G93">
+        <v>-0.02100185467833346</v>
+      </c>
+      <c r="H93">
+        <v>-0.02114880040034185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2479996441409813</v>
+        <v>-0.118906783135033</v>
       </c>
       <c r="C94">
-        <v>-0.2880447469496568</v>
+        <v>0.3207878774666129</v>
       </c>
       <c r="D94">
-        <v>0.1969579529948643</v>
+        <v>0.3400055147070988</v>
       </c>
       <c r="E94">
-        <v>0.3086633427341171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1609404185241614</v>
+      </c>
+      <c r="F94">
+        <v>0.1486993134037753</v>
+      </c>
+      <c r="G94">
+        <v>0.2945535320537195</v>
+      </c>
+      <c r="H94">
+        <v>-0.1096581935667213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.004970304252913994</v>
+        <v>-0.01466788410025702</v>
       </c>
       <c r="C95">
-        <v>-0.05262443292058977</v>
+        <v>0.07822717912773042</v>
       </c>
       <c r="D95">
-        <v>-0.1024574096649028</v>
+        <v>-0.1364543087973165</v>
       </c>
       <c r="E95">
-        <v>-0.04280872030798983</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08532336585802176</v>
+      </c>
+      <c r="F95">
+        <v>0.03923887395909167</v>
+      </c>
+      <c r="G95">
+        <v>-0.06465467470834067</v>
+      </c>
+      <c r="H95">
+        <v>-0.08380087333915465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.002710959284083114</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0008787308936242265</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0003175448458268814</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003447133874742329</v>
+      </c>
+      <c r="F97">
+        <v>-0.0005156799996077164</v>
+      </c>
+      <c r="G97">
+        <v>0.001026585560249451</v>
+      </c>
+      <c r="H97">
+        <v>-0.005664939598331148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1457847434267537</v>
+        <v>-0.1347443417779201</v>
       </c>
       <c r="C98">
-        <v>-0.1051342763151016</v>
+        <v>0.1654183497158127</v>
       </c>
       <c r="D98">
-        <v>-0.1266389894918359</v>
+        <v>-0.01151273155404454</v>
       </c>
       <c r="E98">
-        <v>0.1056985949373752</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1729651067736584</v>
+      </c>
+      <c r="F98">
+        <v>0.2514400604159411</v>
+      </c>
+      <c r="G98">
+        <v>-0.298319618283399</v>
+      </c>
+      <c r="H98">
+        <v>0.1309385237890405</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003647710662659281</v>
+        <v>-0.001912273093963435</v>
       </c>
       <c r="C101">
-        <v>-0.02116969422175793</v>
+        <v>0.0391482701535136</v>
       </c>
       <c r="D101">
-        <v>-0.07285654598054224</v>
+        <v>-0.08613189128375959</v>
       </c>
       <c r="E101">
-        <v>-0.0520554092423361</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1054899563775142</v>
+      </c>
+      <c r="F101">
+        <v>-0.03890391732398753</v>
+      </c>
+      <c r="G101">
+        <v>0.01321121263334029</v>
+      </c>
+      <c r="H101">
+        <v>0.03807272986102279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08271149005248757</v>
+        <v>-0.01875133266059806</v>
       </c>
       <c r="C102">
-        <v>-0.1667033551994505</v>
+        <v>0.1361890499428263</v>
       </c>
       <c r="D102">
-        <v>0.01594168829402585</v>
+        <v>0.09137899953499712</v>
       </c>
       <c r="E102">
-        <v>0.1075977312167186</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.06337570132311338</v>
+      </c>
+      <c r="F102">
+        <v>0.08289042838221561</v>
+      </c>
+      <c r="G102">
+        <v>0.01286270859158889</v>
+      </c>
+      <c r="H102">
+        <v>0.02240995184468028</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
